--- a/Data_Upload_Template.xlsx
+++ b/Data_Upload_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leranpeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leranpeng/Desktop/AgilWebDev2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8DFA10-C9FC-A743-BF9E-768CE741F722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C5F373-B90E-1049-A468-D4910037EDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" xr2:uid="{29F366F7-E7A4-7C4E-91EA-15C6DAD7A6CD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="35600" windowHeight="20400" xr2:uid="{29F366F7-E7A4-7C4E-91EA-15C6DAD7A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD37DF8-AAE3-F641-BC2C-3E6F7B21D03E}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,12 +639,14 @@
     <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -673,7 +675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -691,14 +693,14 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -714,14 +716,14 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -741,14 +743,14 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -768,14 +770,14 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -795,70 +797,70 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K7" s="3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K8" s="3" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K9" s="3" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K10" s="3" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K11" s="3" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K12" s="3"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
     </row>
